--- a/DataFiles/CH 08/Gasoline.xlsx
+++ b/DataFiles/CH 08/Gasoline.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fryml.BUSINESS\Documents\My Dropbox\ASW Files\BusAnalytics (EBA)\FINAL CHAPTER FILES\05_Chapter5_Time Series Forecasting_JIM\bookDisk\WEBfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Documents/Hamline Acedmics/Hamline 2024-25/Hamline Spring 25/QMBE 3730/QMBE_3730_Andy_Converse/Untitled/DataFiles/CH 08/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D0724-2A90-D74E-844C-5FA7A7502714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15180" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gasoline Sales Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Week</t>
   </si>
@@ -30,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -93,10 +108,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -117,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,9 +172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,21 +417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -437,7 +452,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -458,7 +473,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -479,15 +494,19 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -500,15 +519,20 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>23</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5">
+        <f t="shared" ref="C5:C15" si="0">AVERAGE(B2:B3)</f>
+        <v>19</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -521,15 +545,21 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D15" si="1">AVERAGE(B2:B4)</f>
+        <v>19</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -542,15 +572,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -563,15 +599,21 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -584,15 +626,21 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -605,15 +653,21 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -626,15 +680,21 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -647,15 +707,21 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -668,15 +734,21 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>22</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -689,11 +761,17 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -706,11 +784,17 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -723,7 +807,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -740,7 +824,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -757,7 +841,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -765,7 +849,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
@@ -773,7 +857,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
@@ -781,7 +865,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -789,7 +873,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -797,7 +881,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -805,7 +889,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -813,7 +897,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -824,4 +908,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7D246A-5160-3A4E-9689-321D981CB174}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>21</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <f>B2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C14" si="0">0.8*B3+0.2*C4</f>
+        <v>20.200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>19.240000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>22.248000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>18.849600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16.569920000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>19.313984000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>18.2627968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>21.252559360000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>20.250511872000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16.050102374400002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>